--- a/Resumen.xlsx
+++ b/Resumen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="116">
   <si>
     <t>State</t>
   </si>
@@ -49,107 +49,344 @@
     <t>RETURNED</t>
   </si>
   <si>
+    <t>TURNED_IN</t>
+  </si>
+  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>No somos lobos.mp4</t>
-  </si>
-  <si>
-    <t>Hoja de calculo  con Nombre.xlsx</t>
-  </si>
-  <si>
-    <t>Tabla 1 Valores.xlsx</t>
-  </si>
-  <si>
-    <t>Cap.jpg</t>
-  </si>
-  <si>
-    <t>Video con música de Fondo y filtros</t>
-  </si>
-  <si>
-    <t>Video Marcianito Bailando</t>
-  </si>
-  <si>
-    <t>Proyecto ShotCut</t>
-  </si>
-  <si>
-    <t>Hoja de Cálculo con nombre</t>
-  </si>
-  <si>
-    <t>Tabla de Valores</t>
-  </si>
-  <si>
-    <t>Instalar OBS Studio</t>
-  </si>
-  <si>
-    <t>Checar le video y adjuntar le video en formato ".mp4", este debe de contener una canción de fondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se debe subir el video editado del marcianito bailando. Para mayores detalles, se adjunta el video de la clase y del tutorial de ShotCut
+    <t>Screenshot_20210312-120048.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20210130-220246.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20210216-214257.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20210225-113723.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20210304-202250.png</t>
+  </si>
+  <si>
+    <t>Lista de Compras Word y Tocar el piano (17 mar. 2021 9:38:12 p. m.).jpeg</t>
+  </si>
+  <si>
+    <t>Screenshot_20210325-064027.png</t>
+  </si>
+  <si>
+    <t>Screenshot_20210421-095835.png</t>
+  </si>
+  <si>
+    <t>AdivinaCuentas y Palabras (31 ene 2021 10:48 a. m.)</t>
+  </si>
+  <si>
+    <t>Actividad Gcompris o MiniSebran (26 feb 2021 10:13 p. m.)</t>
+  </si>
+  <si>
+    <t>Mini Sebran - Gcompris (26 feb 2021 10:08 p. m.)</t>
+  </si>
+  <si>
+    <t>Procesador de Textos con Gcompris (8 mar 2021 9:47 p. m.)</t>
+  </si>
+  <si>
+    <t>Lista de Compras Word y Tocar el piano (24 mar 2021 10:11 p. m.).png</t>
+  </si>
+  <si>
+    <t>Música Gcompris (24 mar 2021 9:56 p. m.)</t>
+  </si>
+  <si>
+    <t>adivinacuentas N1.PNG</t>
+  </si>
+  <si>
+    <t>LETRA E.PNG</t>
+  </si>
+  <si>
+    <t>ARCHIVO1.PNG</t>
+  </si>
+  <si>
+    <t>LISTA 1.PNG</t>
+  </si>
+  <si>
+    <t>PIANO N2.PNG</t>
+  </si>
+  <si>
+    <t>MEMORIA SONIDOS.PNG</t>
+  </si>
+  <si>
+    <t>CARRITO N3.PNG</t>
+  </si>
+  <si>
+    <t>memorama.pdf</t>
+  </si>
+  <si>
+    <t>Captura de pantalla de palabras.png</t>
+  </si>
+  <si>
+    <t>Abecedario .png</t>
+  </si>
+  <si>
+    <t>IMAGENES.png</t>
+  </si>
+  <si>
+    <t>lista parte uno.png</t>
+  </si>
+  <si>
+    <t>LISTA DE C0MPRAS.docx</t>
+  </si>
+  <si>
+    <t>captura musica.png</t>
+  </si>
+  <si>
+    <t>rompecabezas.jpg</t>
+  </si>
+  <si>
+    <t>20210131_123534.jpg</t>
+  </si>
+  <si>
+    <t>Actividad Gcompris o MiniSebran (3 mar 2021 9:12:51 p. m.).jpeg</t>
+  </si>
+  <si>
+    <t>Mini Sebran - Gcompris (3 mar 2021 9:46:09 p. m.).jpeg</t>
+  </si>
+  <si>
+    <t>Procesador de Textos con Gcompris (16 mar 2021 9:59:38 p. m.).jpeg</t>
+  </si>
+  <si>
+    <t>20210316_221054.jpg</t>
+  </si>
+  <si>
+    <t>Música Gcompris (24 mar 2021 10:11:56 p. m.).jpeg</t>
+  </si>
+  <si>
+    <t>20210429_133235.jpg</t>
+  </si>
+  <si>
+    <t>280120C54W.pdf</t>
+  </si>
+  <si>
+    <t>sebran11feb.pdf</t>
+  </si>
+  <si>
+    <t>sebran25feb.pdf</t>
+  </si>
+  <si>
+    <t>gcom040321.pdf</t>
+  </si>
+  <si>
+    <t>Lista de compras.docx</t>
+  </si>
+  <si>
+    <t>gcom180321.docx</t>
+  </si>
+  <si>
+    <t>gcom150421.pdf</t>
+  </si>
+  <si>
+    <t>Actividad Gcompris o MiniSebran (10 mar. 2021 3:58:34 PM).jpeg</t>
+  </si>
+  <si>
+    <t>20210303_130316-COLLAGE.jpg</t>
+  </si>
+  <si>
+    <t>IMG_20210129_003544.jpg</t>
+  </si>
+  <si>
+    <t>IMG_20210304_001656958.jpg</t>
+  </si>
+  <si>
+    <t>AdivinaCuentas y Palabras</t>
+  </si>
+  <si>
+    <t>Actividad Gcompris o MiniSebran</t>
+  </si>
+  <si>
+    <t>Mini Sebran - Gcompris</t>
+  </si>
+  <si>
+    <t>Procesador de Textos con Gcompris</t>
+  </si>
+  <si>
+    <t>Lista de Compras Word y Tocar el piano</t>
+  </si>
+  <si>
+    <t>Música Gcompris</t>
+  </si>
+  <si>
+    <t>Tarea Juegos de Lógica</t>
+  </si>
+  <si>
+    <t>Se debe subir una captura de pantalla sobre las actividades:
+AdivinaCuentas: Sólo nivel 1
+Palabras: Nivel 3 al 5
+Instala MiniSebran (Checa el video adjunto)</t>
+  </si>
+  <si>
+    <t>Dependiendo del programa que se tenga, entregar lo siguiente:
+Si se tiene Minisebran se deberá entregar:
+Teclas de Color Verde
+Figura diferente(Fruta)
+Colorear 3 vocales (A, E, I)
+Si se tienen Gcompris se deberá entregar:
+Letras que caen (nivel 2)
+Palabras que caen (nivel 2)
+Letra que falta (Nivel 2)</t>
+  </si>
+  <si>
+    <t>Se debe adjuntar una captura de pantalla sobre las siguientes actividades
+Procesador de Textos con lo visto en clase (Gcompris y Mini Sebran)
+Dibujo hecho en Mini Sebran (Sólo Minisebran)
+Letras (Sólo minisebran)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe adjuntar la actividad del día 4/Marzo/2021, la cual consiste en 3 capturas de pantalla sobre el trabajo hecho ese día:
+1.- Captura de pantalla de la lista de compras (Parte 1)
+2.- Captura de pantalla de la lista de compras (Parte 2)
+3.- Captura de pantalla del guardado exitoso </t>
+  </si>
+  <si>
+    <t>Se debe subir el trabajo sobre las siguientes actividades:
+-Lista de compras hecha en Word (documento en Word ".docsx")
+-Captura de pantalla sobre tocarle piano en Gcopris (Nivel 1-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subir una captura de pantalla sobre las siguientes actividades:
+-Melodía Nivel 1 al 3
+-Memorama Musical 1 (Nivel 1 al 3)
+Acabar el documento hecho en clase. No se debe subir. (Les adjunto una captura de pantalla del documento)
 </t>
   </si>
   <si>
-    <t>Se debe entregar el video en formato ".mp4". Para este Proyecto se tienen 3 alternativas
-- Video Musical: En este caso solo se debe escoger una canción de su agrado (Canción de cualquier género). Este video debe tener la letra de la canción con una presentación de imágenes de Fondo.
-(Se puede usar las canciones que ustedes deseen) Video de ejemplo: Ocean Man - Ween [Sub Español] (Final de Bob Esponja)
-- Video  explicando un Tema: Elegir un tema libre y realizar una presentación (ya sea en power Point o en ShotCut), explicando el tema que se elige. (Es necesario grabar la voz) Video de Ejemplo: Descripción del Proyecto 2
-- Video Draw My Life: Hacer un video tipo Draw My Life, donde se puede contar desde una biografía de algún personaje histórico, una Auto - Biografía o bien un cuento o historia inventada. Se recomienda para este caso usar un programa básico de dibujo (Paint, Tux Paint), no se requiere hacer un dibujo muy bueno o detallado. Video de ejemplo: Primera Guerra Mundial (Resumen) | Draw My Life
-Para mayores detalles de las rúbricas y cuestiones a evaluar revisar la rúbrica de evaluación de Classroom
-Les adjunto 3 ejemplos de Videos, el video de como descargar música de Yotube y el video de la clase del día 09/Diciembre/2020 (5°) y 22/febrero/2021 (3°)</t>
-  </si>
-  <si>
-    <t>Se debe adjuntar la hoja de cálculo hecha el día 1/Marzo del 2021. Para mas detalles, consultar los detalles del video.</t>
-  </si>
-  <si>
-    <t>Se debe subir la tabla que se realizó en clase. Esta actividad debe de realizarse en Excel y debe subirse en formato de libro Excel (.xlsx)
-Para mas detalles revisar el video de clase.</t>
-  </si>
-  <si>
-    <t>Se debe instalar el programa OB Studio, les adjunto el enlace de la descarga y una captura de pantalla de cual se debe de instalar:
-Link de instalación: https://obsproject.com/es
-OJO: Se debe entregar una captura de pantalla de el programa instalado correctamente</t>
-  </si>
-  <si>
-    <t>2021-02-08T18:08:29.899Z</t>
-  </si>
-  <si>
-    <t>2021-02-15T20:36:19.411Z</t>
-  </si>
-  <si>
-    <t>2021-02-22T17:07:17.006Z</t>
-  </si>
-  <si>
-    <t>2021-03-01T18:52:52.805Z</t>
-  </si>
-  <si>
-    <t>2021-03-23T19:37:19.467Z</t>
-  </si>
-  <si>
-    <t>2021-02-22T17:08:06.385Z</t>
-  </si>
-  <si>
-    <t>16/2/2021</t>
-  </si>
-  <si>
-    <t>23/2/2021</t>
-  </si>
-  <si>
-    <t>28/2/2021</t>
-  </si>
-  <si>
-    <t>9/3/2021</t>
-  </si>
-  <si>
-    <t>30/3/2021</t>
-  </si>
-  <si>
-    <t>27/2/2021</t>
-  </si>
-  <si>
-    <t>Gael Mejia</t>
-  </si>
-  <si>
-    <t>gaelmejiam12@gmail.com</t>
+    <t>Actividades:
+Subir una captura de pantalla sobre la actividad Rompecabezas (hasta el nivel 4)
+Subir una captura de pantalla sobre la actividad Ferrocarriles(hasta el nivel 4)https://youtu.be/BGoOorYP8EU</t>
+  </si>
+  <si>
+    <t>2021-01-28T17:51:11.182Z</t>
+  </si>
+  <si>
+    <t>2021-02-11T20:54:03.081Z</t>
+  </si>
+  <si>
+    <t>2021-02-25T19:24:56.875Z</t>
+  </si>
+  <si>
+    <t>2021-03-04T19:24:42.774Z</t>
+  </si>
+  <si>
+    <t>2021-03-11T19:09:58.103Z</t>
+  </si>
+  <si>
+    <t>2021-03-18T19:00:00.320Z</t>
+  </si>
+  <si>
+    <t>2021-04-15T19:17:26.891Z</t>
+  </si>
+  <si>
+    <t>1/2/2021</t>
+  </si>
+  <si>
+    <t>19/2/2021</t>
+  </si>
+  <si>
+    <t>4/3/2021</t>
+  </si>
+  <si>
+    <t>12/3/2021</t>
+  </si>
+  <si>
+    <t>19/3/2021</t>
+  </si>
+  <si>
+    <t>26/3/2021</t>
+  </si>
+  <si>
+    <t>24/4/2021</t>
+  </si>
+  <si>
+    <t>Sonia Cruz</t>
+  </si>
+  <si>
+    <t>Yesenia Ortiz</t>
+  </si>
+  <si>
+    <t>Ximena González</t>
+  </si>
+  <si>
+    <t>Regina Yaretzi Galicia Méndez</t>
+  </si>
+  <si>
+    <t>Sofia Velazco</t>
+  </si>
+  <si>
+    <t>Pamela Sofía Cordero</t>
+  </si>
+  <si>
+    <t>paola ferriz</t>
+  </si>
+  <si>
+    <t>Ángel Hiram Pomposo Fuentes</t>
+  </si>
+  <si>
+    <t>Joselyn Cruz</t>
+  </si>
+  <si>
+    <t>MARCO ALONSO GARCÍA REYES</t>
+  </si>
+  <si>
+    <t>Yesenia Ortiz Balanzario</t>
+  </si>
+  <si>
+    <t>Azyadeth Betsabé Ramos Hasebe</t>
+  </si>
+  <si>
+    <t>adrian perez sanchez</t>
+  </si>
+  <si>
+    <t>Yoshua Mateo Davila Diaz</t>
+  </si>
+  <si>
+    <t>soniaeli.gatitok3@gmail.com</t>
+  </si>
+  <si>
+    <t>ortizyesenia853@gmail.com</t>
+  </si>
+  <si>
+    <t>ximenakgv@gmail.com</t>
+  </si>
+  <si>
+    <t>reginayaretzigaliciamendez@gmail.com</t>
+  </si>
+  <si>
+    <t>sofiavelazco1202@gmail.com</t>
+  </si>
+  <si>
+    <t>pamelasofiacordero@gmail.com</t>
+  </si>
+  <si>
+    <t>paolaferriz.28@gmail.com</t>
+  </si>
+  <si>
+    <t>hirampomposo09@gmail.com</t>
+  </si>
+  <si>
+    <t>joselyn.cruzc02@gmail.com</t>
+  </si>
+  <si>
+    <t>alonso.garcia211215@gmail.com</t>
+  </si>
+  <si>
+    <t>yeseniaortizbalanzario@gmail.com</t>
+  </si>
+  <si>
+    <t>azyadeth.betsabe@gmail.com</t>
+  </si>
+  <si>
+    <t>ap8623467@gmail.com</t>
+  </si>
+  <si>
+    <t>yoshuamateodaviladiaz@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -507,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,77 +784,77 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -626,133 +863,3353 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+      <c r="K56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+      <c r="K57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+      <c r="K58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+      <c r="K60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="I65" t="s">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+      <c r="K66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>83</v>
+      </c>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+      <c r="K67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68" t="s">
+        <v>84</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+      <c r="K68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>32</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+      <c r="K69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+      <c r="I70" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+      <c r="K70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72" t="s">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="I73" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>84</v>
+      </c>
+      <c r="J75" t="s">
+        <v>98</v>
+      </c>
+      <c r="K75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>85</v>
+      </c>
+      <c r="J76" t="s">
+        <v>98</v>
+      </c>
+      <c r="K76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" t="s">
+        <v>98</v>
+      </c>
+      <c r="K77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>87</v>
+      </c>
+      <c r="J78" t="s">
+        <v>98</v>
+      </c>
+      <c r="K78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79" t="s">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s">
+        <v>99</v>
+      </c>
+      <c r="K79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s">
+        <v>99</v>
+      </c>
+      <c r="K80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>70</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" t="s">
+        <v>99</v>
+      </c>
+      <c r="K82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83" t="s">
+        <v>85</v>
+      </c>
+      <c r="J83" t="s">
+        <v>99</v>
+      </c>
+      <c r="K83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" t="s">
+        <v>79</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>86</v>
+      </c>
+      <c r="J84" t="s">
+        <v>99</v>
+      </c>
+      <c r="K84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" t="s">
+        <v>73</v>
+      </c>
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>87</v>
+      </c>
+      <c r="J85" t="s">
+        <v>99</v>
+      </c>
+      <c r="K85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>81</v>
+      </c>
+      <c r="J86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+      <c r="I87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>72</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>83</v>
+      </c>
+      <c r="J88" t="s">
+        <v>100</v>
+      </c>
+      <c r="K88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>73</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" t="s">
+        <v>100</v>
+      </c>
+      <c r="K89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>74</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+      <c r="I90" t="s">
+        <v>85</v>
+      </c>
+      <c r="J90" t="s">
+        <v>100</v>
+      </c>
+      <c r="K90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>75</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" t="s">
+        <v>100</v>
+      </c>
+      <c r="K91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>76</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s">
+        <v>100</v>
+      </c>
+      <c r="K92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93" t="s">
+        <v>81</v>
+      </c>
+      <c r="J93" t="s">
+        <v>101</v>
+      </c>
+      <c r="K93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95" t="s">
+        <v>83</v>
+      </c>
+      <c r="J95" t="s">
+        <v>101</v>
+      </c>
+      <c r="K95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>38</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96" t="s">
+        <v>84</v>
+      </c>
+      <c r="J96" t="s">
+        <v>101</v>
+      </c>
+      <c r="K96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97" t="s">
+        <v>85</v>
+      </c>
+      <c r="J97" t="s">
+        <v>101</v>
+      </c>
+      <c r="K97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98" t="s">
+        <v>86</v>
+      </c>
+      <c r="J98" t="s">
+        <v>101</v>
+      </c>
+      <c r="K98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
         <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99" t="s">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s">
+        <v>101</v>
+      </c>
+      <c r="K99" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
